--- a/Node_200_Naver_V2/docs/양식샘플-테이블명세-양식.xlsx
+++ b/Node_200_Naver_V2/docs/양식샘플-테이블명세-양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\NodeJS_Study\Node_200_Naver\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\NodeJS_Study\Node_200_Naver_V2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FE47C7-81BC-4186-9272-E90CD685FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4AD8C-1607-4ABA-BA80-73A677CB73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="225" windowWidth="23535" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31230" yWindow="915" windowWidth="23535" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="2" r:id="rId1"/>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>y_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>u_nickname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,6 +456,10 @@
   </si>
   <si>
     <t>u_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_addr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,6 +1007,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1035,9 +1038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2043,18 +2043,18 @@
       <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
@@ -2066,32 +2066,32 @@
       <c r="C3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2345,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>75</v>
@@ -3270,20 +3270,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
@@ -3295,32 +3295,32 @@
       <c r="C3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3373,7 +3373,7 @@
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="28" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="3"/>
@@ -3788,12 +3788,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36695D2C-5D2A-481E-BBD7-67A98FE736C3}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4463,20 +4463,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
@@ -4488,32 +4488,32 @@
       <c r="C3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4566,7 +4566,7 @@
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="28" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -4585,13 +4585,13 @@
         <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>99</v>
@@ -4658,10 +4658,10 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>80</v>
@@ -4684,7 +4684,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>77</v>
@@ -4701,13 +4701,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>78</v>
@@ -4999,12 +4999,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
